--- a/Расписание заданий.xlsx
+++ b/Расписание заданий.xlsx
@@ -1,72 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\SUAI_5sem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SUAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B65B72-C9E2-4458-9463-39D2B2204AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367CE422-8B32-461E-930C-42E0D98589B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="9420" xr2:uid="{010A4B3F-F8C0-44ED-AC48-89E8262330B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{010A4B3F-F8C0-44ED-AC48-89E8262330B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="3">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
         </ext>
       </extLst>
     </bk>
@@ -76,17 +43,6 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="3">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-    <bk>
-      <rc t="2" v="1"/>
-    </bk>
-    <bk>
-      <rc t="2" v="2"/>
-    </bk>
-  </valueMetadata>
 </metadata>
 </file>
 
@@ -359,6 +315,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -368,26 +336,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9BC2D3-AFC8-4DBA-AC1C-3F0974080892}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -798,41 +754,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16">
         <f ca="1">TODAY()</f>
-        <v>44462</v>
-      </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="22" t="s">
+        <v>44469</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16">
         <v>44561</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -840,36 +796,36 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="24">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="17">
         <f ca="1">J1-D1</f>
-        <v>99</v>
-      </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="21"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -886,13 +842,13 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="19">
+      <c r="I5" s="24">
         <f ca="1">I3/7</f>
-        <v>14.142857142857142</v>
-      </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20" t="s">
+        <v>13.142857142857142</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -900,35 +856,35 @@
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="e" cm="1" vm="1">
+      <c r="B6" s="5" t="e" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">INDEX(A15:A22,MIN(IF((D15:D22=_xlfn.MINIFS(D15:D22,D15:D22,"&gt;0",D15:D22,"&lt;7")),ROW(D15:D22)-ROW(D14),"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C6" s="5" t="str" cm="1">
+        <v>#NAME?</v>
+      </c>
+      <c r="C6" s="5" t="e" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">INDEX(A15:A22,MIN(IF((D15:D22=_xlfn.MINIFS(D15:D22,D15:D22,"&gt;0",D15:D22,"&lt;15")),ROW(D15:D22)-ROW(D14),"")))</f>
-        <v>ЛР2</v>
+        <v>#NAME?</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="5" t="str" cm="1">
+      <c r="B7" s="5" t="e" cm="1">
         <f t="array" aca="1" ref="B7" ca="1">INDEX(F15:F22,MIN(IF((I15:I22=_xlfn.MINIFS(I15:I22,I15:I22,"&gt;0",I15:I22,"&lt;7")),ROW(I15:I22)-ROW(I14),"")))</f>
-        <v>ЛР2</v>
-      </c>
-      <c r="C7" s="5" t="str" cm="1">
+        <v>#NAME?</v>
+      </c>
+      <c r="C7" s="5" t="e" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">INDEX(F15:F22,MIN(IF((I15:I22=_xlfn.MINIFS(I15:I22,I15:I22,"&gt;0",I15:I22,"&lt;15")),ROW(I15:I22)-ROW(I14),"")))</f>
-        <v>ЛР2</v>
+        <v>#NAME?</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -944,13 +900,13 @@
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5" t="str" cm="1">
+      <c r="B8" s="5" t="e" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">INDEX(A26:A27,MIN(IF((D26:D27=_xlfn.MINIFS(D26:D27,D26:D27,"&gt;0",D26:D27,"&lt;7")),ROW(D26:D27)-ROW(D25),"")))</f>
-        <v>ЛР1</v>
-      </c>
-      <c r="C8" s="5" t="str" cm="1">
+        <v>#NAME?</v>
+      </c>
+      <c r="C8" s="5" t="e" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">INDEX(A26:A27,MIN(IF((D26:D27=_xlfn.MINIFS(D26:D27,D26:D27,"&gt;0",D26:D27,"&lt;15")),ROW(D26:D27)-ROW(D25),"")))</f>
-        <v>ЛР1</v>
+        <v>#NAME?</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -966,13 +922,13 @@
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5" t="e" cm="1" vm="2">
+      <c r="B9" s="5" t="e" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">INDEX(F26:F28,MIN(IF((I26:I28=_xlfn.MINIFS(I26:I28,I26:I28,"&gt;0",I26:I28,"&lt;7")),ROW(I26:I28)-ROW(I25),"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C9" s="5" t="e" cm="1" vm="2">
+        <v>#NAME?</v>
+      </c>
+      <c r="C9" s="5" t="e" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">INDEX(F26:F28,MIN(IF((I26:I28=_xlfn.MINIFS(I26:I28,I26:I28,"&gt;0",I26:I28,"&lt;15")),ROW(I26:I28)-ROW(I25),"")))</f>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -988,13 +944,13 @@
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="5" t="e" cm="1" vm="3">
+      <c r="B10" s="5" t="e" cm="1">
         <f t="array" aca="1" ref="B10" ca="1">INDEX(A33:A34,MIN(IF((D33:D34=_xlfn.MINIFS(D33:D34,D33:D34,"&gt;0",D33:D34,"&lt;7")),ROW(D33:D34)-ROW(D33:D34),"")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C10" s="5" t="e" cm="1" vm="3">
+        <v>#NAME?</v>
+      </c>
+      <c r="C10" s="5" t="e" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">INDEX(A33:A34,MIN(IF((D33:D34=_xlfn.MINIFS(D33:D34,D33:D34,"&gt;0",D33:D34,"&lt;15")),ROW(D33:D34)-ROW(D33:D34),"")))</f>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1010,13 +966,13 @@
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5" cm="1">
+      <c r="B11" s="5" t="e" cm="1">
         <f t="array" aca="1" ref="B11" ca="1">INDEX(F33:F34,MIN(IF((I33:I34=_xlfn.MINIFS(I33:I34,I33:I34,"&gt;0",I33:I34,"&lt;7")),ROW(I33:I34)-ROW(I32),"")))</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="5" cm="1">
+        <v>#NAME?</v>
+      </c>
+      <c r="C11" s="5" t="e" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">INDEX(F33:F34,MIN(IF((I33:I34=_xlfn.MINIFS(I33:I34,I33:I34,"&gt;0",I33:I34,"&lt;15")),ROW(I33:I34)-ROW(I32),"")))</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1046,20 +1002,20 @@
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="1"/>
       <c r="F13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
       <c r="L13" s="6"/>
@@ -1106,7 +1062,7 @@
       </c>
       <c r="D15" s="2">
         <f ca="1">B15-$D$1</f>
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2" t="s">
@@ -1120,7 +1076,7 @@
       </c>
       <c r="I15" s="9">
         <f ca="1">G15-$D$1</f>
-        <v>-9</v>
+        <v>-16</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1138,7 +1094,7 @@
       </c>
       <c r="D16" s="2">
         <f t="shared" ref="D16:D22" ca="1" si="0">C16-$D$1</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="2" t="s">
@@ -1152,7 +1108,7 @@
       </c>
       <c r="I16" s="9">
         <f ca="1">G16-$D$1</f>
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1170,7 +1126,7 @@
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2" t="s">
@@ -1184,7 +1140,7 @@
       </c>
       <c r="I17" s="9">
         <f t="shared" ref="I17:I22" ca="1" si="1">G17-$D$1</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1202,7 +1158,7 @@
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="2" t="s">
@@ -1216,7 +1172,7 @@
       </c>
       <c r="I18" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1234,7 +1190,7 @@
       </c>
       <c r="D19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2" t="s">
@@ -1248,7 +1204,7 @@
       </c>
       <c r="I19" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1266,7 +1222,7 @@
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2" t="s">
@@ -1280,7 +1236,7 @@
       </c>
       <c r="I20" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1298,7 +1254,7 @@
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="2" t="s">
@@ -1312,7 +1268,7 @@
       </c>
       <c r="I21" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1330,7 +1286,7 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="2" t="s">
@@ -1344,7 +1300,7 @@
       </c>
       <c r="I22" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1368,20 +1324,20 @@
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="1"/>
       <c r="F24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1428,7 +1384,7 @@
       </c>
       <c r="D26" s="2">
         <f ca="1">C26-D1</f>
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="2" t="s">
@@ -1442,7 +1398,7 @@
       </c>
       <c r="I26" s="2">
         <f ca="1">G26-D1</f>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1460,7 +1416,7 @@
       </c>
       <c r="D27" s="10">
         <f ca="1">C27-D1</f>
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="2" t="s">
@@ -1474,7 +1430,7 @@
       </c>
       <c r="I27" s="2">
         <f ca="1">G27-D1</f>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1497,7 +1453,7 @@
       </c>
       <c r="I28" s="9">
         <f ca="1">G28-D1</f>
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1535,20 +1491,20 @@
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="1"/>
       <c r="F31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="21"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1591,7 +1547,7 @@
         <v>44476</v>
       </c>
       <c r="C33" s="8">
-        <v>44476</v>
+        <v>44483</v>
       </c>
       <c r="D33" s="2">
         <f ca="1">C33-D1</f>
@@ -1609,7 +1565,7 @@
       </c>
       <c r="I33" s="9">
         <f ca="1">H33-D1</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1617,22 +1573,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="F3:H4"/>
     <mergeCell ref="I3:K4"/>
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="J1:L2"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="I5:K6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
